--- a/Mini-Projeto1/NINTENDOSWITCH/dataframeNINTENDOSWITCH.xlsx
+++ b/Mini-Projeto1/NINTENDOSWITCH/dataframeNINTENDOSWITCH.xlsx
@@ -436,32 +436,32 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>col_0</t>
+          <t>Título</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>col_1</t>
+          <t>Desenvolvedor</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>col_2</t>
+          <t>Publicadora</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>col_3</t>
+          <t>Lançamento</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>col_4</t>
+          <t>Obs.</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>col_5</t>
+          <t>Ref.</t>
         </is>
       </c>
     </row>
